--- a/curve fattori.xlsx
+++ b/curve fattori.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p076600\Sviluppo\DCE_GW_1975\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DE84ED-D38B-49DF-BBEF-0DAAC348E453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5096FA9-F1D8-4A47-92E9-8E1D1DDC0670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{905F9C43-8413-403D-8A85-AA1B65366930}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{905F9C43-8413-403D-8A85-AA1B65366930}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -362,154 +362,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>30.000084875285026</c:v>
+                  <c:v>1.0000028291761676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.427477693470998</c:v>
+                  <c:v>1.0142492564490333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.860959315131911</c:v>
+                  <c:v>1.0286986438377304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.300616483718219</c:v>
+                  <c:v>1.0433538827906073</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.746537178461175</c:v>
+                  <c:v>1.0582179059487058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.198810631978169</c:v>
+                  <c:v>1.0732936877326056</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.657527348129022</c:v>
+                  <c:v>1.0885842449376342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.122779120126545</c:v>
+                  <c:v>1.1040926373375515</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.594659048905172</c:v>
+                  <c:v>1.1198219682968391</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.073261561751295</c:v>
+                  <c:v>1.1357753853917099</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.55868243119896</c:v>
+                  <c:v>1.1519560810399654</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.051018794194796</c:v>
+                  <c:v>1.1683672931398266</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.550369171535955</c:v>
+                  <c:v>1.1850123057178652</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.056833487585003</c:v>
+                  <c:v>1.2018944495861668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.570513090265621</c:v>
+                  <c:v>1.2190171030088539</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.091510771343252</c:v>
+                  <c:v>1.2363836923781084</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.619930786994594</c:v>
+                  <c:v>1.2539976928998198</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.155878878670187</c:v>
+                  <c:v>1.2718626292890063</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.699462294254189</c:v>
+                  <c:v>1.2899820764751397</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39.250789809525628</c:v>
+                  <c:v>1.3083596603175209</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39.809971749925353</c:v>
+                  <c:v>1.3269990583308451</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.377120012633156</c:v>
+                  <c:v>1.3459040004211051</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.95234808895934</c:v>
+                  <c:v>1.3650782696319781</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41.535771087055345</c:v>
+                  <c:v>1.3845257029018447</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42.127505754947855</c:v>
+                  <c:v>1.4042501918315951</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42.727670503901145</c:v>
+                  <c:v>1.4242556834633715</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43.336385432112174</c:v>
+                  <c:v>1.4445461810704059</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43.953772348743293</c:v>
+                  <c:v>1.4651257449581097</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44.579954798297301</c:v>
+                  <c:v>1.4859984932765766</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45.215058085339791</c:v>
+                  <c:v>1.5071686028446598</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45.859209299573727</c:v>
+                  <c:v>1.5286403099857908</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>46.512537341271106</c:v>
+                  <c:v>1.5504179113757035</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>47.175172947067111</c:v>
+                  <c:v>1.5725057649022369</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>47.847248716121619</c:v>
+                  <c:v>1.5949082905373873</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>48.528899136653443</c:v>
+                  <c:v>1.6176299712217814</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>49.220260612852599</c:v>
+                  <c:v>1.6406753537617533</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>49.921471492175996</c:v>
+                  <c:v>1.6640490497391998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50.632672093031928</c:v>
+                  <c:v>1.6877557364343976</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51.354004732859053</c:v>
+                  <c:v>1.7118001577619684</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>52.085613756605319</c:v>
+                  <c:v>1.7361871252201773</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>52.827645565612663</c:v>
+                  <c:v>1.7609215188537555</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>53.580248646913191</c:v>
+                  <c:v>1.7860082882304398</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>54.343573602942726</c:v>
+                  <c:v>1.8114524534314242</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>55.117773181677677</c:v>
+                  <c:v>1.8372591060559225</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>55.903002307201234</c:v>
+                  <c:v>1.8634334102400412</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>56.699418110705011</c:v>
+                  <c:v>1.889980603690167</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>57.507179961932394</c:v>
+                  <c:v>1.9169059987310799</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>58.32644950106981</c:v>
+                  <c:v>1.9442149833689937</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>59.157390671092323</c:v>
+                  <c:v>1.9719130223697441</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>60.000169750570052</c:v>
+                  <c:v>2.0000056583523351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,154 +950,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97326822504538213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94691033334484931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92091601038008897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89527536266006313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86997889511376969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84501748998031267</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82038238707882516</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7960651653514127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77205772558180052</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74835227420094985</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72494130809861612</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.70181760036678464</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6789741869072089</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65640435384094709</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.63410162566295525</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.61205975408943991</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.59027270754991923</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56873466127977501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.54743998797258731</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52638324895471678</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.50555918584751058</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.4849627126851539</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46458890845860712</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44443301005828817</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.42449040559017981</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.40475662804189683</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.38522734927695523</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36589837433704497</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.34676563603354171</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.32782518981081721</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30907320886511702</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.29050597950390222</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27211989673157422</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.25391146004846044</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.23587726945081444</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.21801402162039851</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.20031850629296655</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.18278760279566375</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.16541827674399789</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.14820757688964259</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.13115263211087747</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.11425064853799449</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.7498906806466334E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.0894759431126895E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.4435628295021474E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.811900224696708E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.194243480222736E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5903541941033827E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.87439036978549378</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7314649356886247</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5718962207765217</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3963183134397323</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.2053297414478061</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.9994960822835379</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.7793523382718748</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.5454051014860015</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.2981345303709189</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.0379961573989895</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.7654225447993106</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.4808248034303428</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.184593988150013</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.877102381541246</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.558704676543757</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.229739067397388</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.890528257297355</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.541380390276924</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.182589914053935</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.814438379888824</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15.437195184892747</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>16.051118261684216</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>16.656454719813127</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>17.253441442944276</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>17.842305645412242</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18.423265391420188</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18.996530079851315</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>19.562300897390795</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20.120771242411205</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>20.672127121856843</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21.216547523164625</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21.754204763082495</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22.285264815086265</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>22.809887616951496</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>23.328227359906567</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>23.840432760674805</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>24.346647317606688</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24.847009552005606</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>25.341653235662672</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>25.830707605535689</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>26.314297566433996</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>26.792543882504646</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>27.265563358254138</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>27.733469009784699</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>28.196370226872876</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>28.654372926472195</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>29.107579698178441</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>29.556089942157588</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2784,27 +2784,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E0334C-C5DF-4587-9C74-B4245ED8C4E9}">
   <dimension ref="E2:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>1</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>4</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>2</v>
       </c>
@@ -2838,15 +2838,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>7</v>
       </c>
       <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>6</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E11">
         <v>5</v>
       </c>
@@ -2870,18 +2870,18 @@
       </c>
       <c r="G11">
         <f>$F$2*(1+$F$6*(2^F11 -1))</f>
-        <v>30.000084875285026</v>
+        <v>1.0000028291761676</v>
       </c>
       <c r="H11">
-        <f xml:space="preserve">  1 + (E11 - $F$5) /  ($F$4-$F$5)</f>
+        <f xml:space="preserve">  1 + ( E11 - $F$5 ) * ( $F$8-1 ) /  ($F$4-$F$5)</f>
         <v>1</v>
       </c>
       <c r="I11">
-        <f>$F$2*(1+$F$6*(LOG(H11,$F$8) -1  ))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+        <f>$F$2*(1-$F$6*(LOG(H11,$F$8) ))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E12">
         <v>10</v>
       </c>
@@ -2891,18 +2891,18 @@
       </c>
       <c r="G12">
         <f t="shared" ref="G12:G60" si="1">$F$2*(1+$F$6*(2^F12 -1))</f>
-        <v>30.427477693470998</v>
+        <v>1.0142492564490333</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H60" si="2" xml:space="preserve">  1 + (E12 - $F$5) /  ($F$4-$F$5)</f>
-        <v>1.0204081632653061</v>
+        <f t="shared" ref="H12:H60" si="2" xml:space="preserve">  1 + ( E12 - $F$5 ) * ( $F$8-1 ) /  ($F$4-$F$5)</f>
+        <v>1.0142857142857142</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="I12:I60" si="3">$F$2*(1+$F$6*(LOG(H12,$F$8) -1  ))</f>
-        <v>0.87439036978549378</v>
-      </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I12:I60" si="3">$F$2*(1-$F$6*(LOG(H12,$F$8) ))</f>
+        <v>0.97326822504538213</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E13">
         <v>15</v>
       </c>
@@ -2912,18 +2912,18 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>30.860959315131911</v>
+        <v>1.0286986438377304</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>1.0408163265306123</v>
+        <v>1.0285714285714285</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>1.7314649356886247</v>
-      </c>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+        <v>0.94691033334484931</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E14">
         <v>20</v>
       </c>
@@ -2933,18 +2933,18 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>31.300616483718219</v>
+        <v>1.0433538827906073</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>1.0612244897959184</v>
+        <v>1.0428571428571429</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>2.5718962207765217</v>
-      </c>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+        <v>0.92091601038008897</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E15">
         <v>25</v>
       </c>
@@ -2954,18 +2954,18 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>31.746537178461175</v>
+        <v>1.0582179059487058</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>1.0816326530612246</v>
+        <v>1.0571428571428572</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>3.3963183134397323</v>
-      </c>
-    </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+        <v>0.89527536266006313</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E16">
         <v>30</v>
       </c>
@@ -2975,18 +2975,18 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>32.198810631978169</v>
+        <v>1.0732936877326056</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>1.1020408163265305</v>
+        <v>1.0714285714285714</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>4.2053297414478061</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.86997889511376969</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E17">
         <v>35</v>
       </c>
@@ -2996,18 +2996,18 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>32.657527348129022</v>
+        <v>1.0885842449376342</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>1.1224489795918366</v>
+        <v>1.0857142857142856</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>4.9994960822835379</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.84501748998031267</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E18">
         <v>40</v>
       </c>
@@ -3017,18 +3017,18 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>33.122779120126545</v>
+        <v>1.1040926373375515</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>1.1428571428571428</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>5.7793523382718748</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.82038238707882516</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E19">
         <v>45</v>
       </c>
@@ -3038,18 +3038,18 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>33.594659048905172</v>
+        <v>1.1198219682968391</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>1.1632653061224489</v>
+        <v>1.1142857142857143</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>6.5454051014860015</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.7960651653514127</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E20">
         <v>50</v>
       </c>
@@ -3059,18 +3059,18 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>34.073261561751295</v>
+        <v>1.1357753853917099</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>1.1836734693877551</v>
+        <v>1.1285714285714286</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>7.2981345303709189</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.77205772558180052</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E21">
         <v>55</v>
       </c>
@@ -3080,18 +3080,18 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>34.55868243119896</v>
+        <v>1.1519560810399654</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>1.2040816326530612</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>8.0379961573989895</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.74835227420094985</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E22">
         <v>60</v>
       </c>
@@ -3101,18 +3101,18 @@
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>35.051018794194796</v>
+        <v>1.1683672931398266</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>1.2244897959183674</v>
+        <v>1.157142857142857</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>8.7654225447993106</v>
-      </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.72494130809861612</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E23">
         <v>65</v>
       </c>
@@ -3122,18 +3122,18 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>35.550369171535955</v>
+        <v>1.1850123057178652</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>1.2448979591836735</v>
+        <v>1.1714285714285715</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>9.4808248034303428</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.70181760036678464</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E24">
         <v>70</v>
       </c>
@@ -3143,18 +3143,18 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>36.056833487585003</v>
+        <v>1.2018944495861668</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>1.2653061224489797</v>
+        <v>1.1857142857142857</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>10.184593988150013</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.6789741869072089</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E25">
         <v>75</v>
       </c>
@@ -3164,18 +3164,18 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>36.570513090265621</v>
+        <v>1.2190171030088539</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>1.2857142857142856</v>
+        <v>1.2</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>10.877102381541246</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.65640435384094709</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E26">
         <v>80</v>
       </c>
@@ -3185,18 +3185,18 @@
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>37.091510771343252</v>
+        <v>1.2363836923781084</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>1.306122448979592</v>
+        <v>1.2142857142857142</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>11.558704676543757</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.63410162566295525</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E27">
         <v>85</v>
       </c>
@@ -3206,18 +3206,18 @@
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>37.619930786994594</v>
+        <v>1.2539976928998198</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>1.3265306122448979</v>
+        <v>1.2285714285714286</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>12.229739067397388</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.61205975408943991</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E28">
         <v>90</v>
       </c>
@@ -3227,18 +3227,18 @@
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>38.155878878670187</v>
+        <v>1.2718626292890063</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>1.346938775510204</v>
+        <v>1.2428571428571429</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>12.890528257297355</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.59027270754991923</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E29">
         <v>95</v>
       </c>
@@ -3248,18 +3248,18 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>38.699462294254189</v>
+        <v>1.2899820764751397</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>1.3673469387755102</v>
+        <v>1.2571428571428571</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>13.541380390276924</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.56873466127977501</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E30">
         <v>100</v>
       </c>
@@ -3269,18 +3269,18 @@
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>39.250789809525628</v>
+        <v>1.3083596603175209</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>1.3877551020408163</v>
+        <v>1.2714285714285714</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>14.182589914053935</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.54743998797258731</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E31">
         <v>105</v>
       </c>
@@ -3290,18 +3290,18 @@
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>39.809971749925353</v>
+        <v>1.3269990583308451</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>1.4081632653061225</v>
+        <v>1.2857142857142856</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>14.814438379888824</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.52638324895471678</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E32">
         <v>110</v>
       </c>
@@ -3311,18 +3311,18 @@
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>40.377120012633156</v>
+        <v>1.3459040004211051</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>1.4285714285714286</v>
+        <v>1.3</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>15.437195184892747</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.50555918584751058</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E33">
         <v>115</v>
       </c>
@@ -3332,18 +3332,18 @@
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>40.95234808895934</v>
+        <v>1.3650782696319781</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>1.4489795918367347</v>
+        <v>1.3142857142857143</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>16.051118261684216</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.4849627126851539</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E34">
         <v>120</v>
       </c>
@@ -3353,18 +3353,18 @@
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>41.535771087055345</v>
+        <v>1.3845257029018447</v>
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>1.4693877551020409</v>
+        <v>1.3285714285714285</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>16.656454719813127</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.46458890845860712</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E35">
         <v>125</v>
       </c>
@@ -3374,18 +3374,18 @@
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>42.127505754947855</v>
+        <v>1.4042501918315951</v>
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>1.489795918367347</v>
+        <v>1.342857142857143</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
-        <v>17.253441442944276</v>
-      </c>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.44443301005828817</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E36">
         <v>130</v>
       </c>
@@ -3395,18 +3395,18 @@
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>42.727670503901145</v>
+        <v>1.4242556834633715</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>1.510204081632653</v>
+        <v>1.3571428571428572</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
-        <v>17.842305645412242</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.42449040559017981</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E37">
         <v>135</v>
       </c>
@@ -3416,18 +3416,18 @@
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>43.336385432112174</v>
+        <v>1.4445461810704059</v>
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>1.5306122448979593</v>
+        <v>1.3714285714285714</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>18.423265391420188</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.40475662804189683</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E38">
         <v>140</v>
       </c>
@@ -3437,18 +3437,18 @@
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>43.953772348743293</v>
+        <v>1.4651257449581097</v>
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>1.5510204081632653</v>
+        <v>1.3857142857142857</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>18.996530079851315</v>
-      </c>
-    </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.38522734927695523</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E39">
         <v>145</v>
       </c>
@@ -3458,18 +3458,18 @@
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>44.579954798297301</v>
+        <v>1.4859984932765766</v>
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
-        <v>1.5714285714285714</v>
+        <v>1.4</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
-        <v>19.562300897390795</v>
-      </c>
-    </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.36589837433704497</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E40">
         <v>150</v>
       </c>
@@ -3479,18 +3479,18 @@
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>45.215058085339791</v>
+        <v>1.5071686028446598</v>
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
-        <v>1.5918367346938775</v>
+        <v>1.4142857142857144</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
-        <v>20.120771242411205</v>
-      </c>
-    </row>
-    <row r="41" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.34676563603354171</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E41">
         <v>155</v>
       </c>
@@ -3500,18 +3500,18 @@
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>45.859209299573727</v>
+        <v>1.5286403099857908</v>
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
-        <v>1.6122448979591837</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
-        <v>20.672127121856843</v>
-      </c>
-    </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.32782518981081721</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E42">
         <v>160</v>
       </c>
@@ -3521,18 +3521,18 @@
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
-        <v>46.512537341271106</v>
+        <v>1.5504179113757035</v>
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>1.6326530612244898</v>
+        <v>1.4428571428571428</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
-        <v>21.216547523164625</v>
-      </c>
-    </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.30907320886511702</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E43">
         <v>165</v>
       </c>
@@ -3542,18 +3542,18 @@
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
-        <v>47.175172947067111</v>
+        <v>1.5725057649022369</v>
       </c>
       <c r="H43">
         <f t="shared" si="2"/>
-        <v>1.6530612244897958</v>
+        <v>1.4571428571428571</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>21.754204763082495</v>
-      </c>
-    </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.29050597950390222</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E44">
         <v>170</v>
       </c>
@@ -3563,18 +3563,18 @@
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
-        <v>47.847248716121619</v>
+        <v>1.5949082905373873</v>
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
-        <v>1.6734693877551021</v>
+        <v>1.4714285714285713</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
-        <v>22.285264815086265</v>
-      </c>
-    </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.27211989673157422</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E45">
         <v>175</v>
       </c>
@@ -3584,18 +3584,18 @@
       </c>
       <c r="G45">
         <f t="shared" si="1"/>
-        <v>48.528899136653443</v>
+        <v>1.6176299712217814</v>
       </c>
       <c r="H45">
         <f t="shared" si="2"/>
-        <v>1.693877551020408</v>
+        <v>1.4857142857142858</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
-        <v>22.809887616951496</v>
-      </c>
-    </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.25391146004846044</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E46">
         <v>180</v>
       </c>
@@ -3605,18 +3605,18 @@
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
-        <v>49.220260612852599</v>
+        <v>1.6406753537617533</v>
       </c>
       <c r="H46">
         <f t="shared" si="2"/>
-        <v>1.7142857142857144</v>
+        <v>1.5</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
-        <v>23.328227359906567</v>
-      </c>
-    </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.23587726945081444</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E47">
         <v>185</v>
       </c>
@@ -3626,18 +3626,18 @@
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
-        <v>49.921471492175996</v>
+        <v>1.6640490497391998</v>
       </c>
       <c r="H47">
         <f t="shared" si="2"/>
-        <v>1.7346938775510203</v>
+        <v>1.5142857142857142</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
-        <v>23.840432760674805</v>
-      </c>
-    </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.21801402162039851</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E48">
         <v>190</v>
       </c>
@@ -3647,18 +3647,18 @@
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
-        <v>50.632672093031928</v>
+        <v>1.6877557364343976</v>
       </c>
       <c r="H48">
         <f t="shared" si="2"/>
-        <v>1.7551020408163265</v>
+        <v>1.5285714285714285</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
-        <v>24.346647317606688</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.20031850629296655</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E49">
         <v>195</v>
       </c>
@@ -3668,18 +3668,18 @@
       </c>
       <c r="G49">
         <f t="shared" si="1"/>
-        <v>51.354004732859053</v>
+        <v>1.7118001577619684</v>
       </c>
       <c r="H49">
         <f t="shared" si="2"/>
-        <v>1.7755102040816326</v>
+        <v>1.5428571428571427</v>
       </c>
       <c r="I49">
         <f t="shared" si="3"/>
-        <v>24.847009552005606</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.18278760279566375</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E50">
         <v>200</v>
       </c>
@@ -3689,18 +3689,18 @@
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>52.085613756605319</v>
+        <v>1.7361871252201773</v>
       </c>
       <c r="H50">
         <f t="shared" si="2"/>
-        <v>1.7959183673469388</v>
+        <v>1.5571428571428572</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
-        <v>25.341653235662672</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.16541827674399789</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E51">
         <v>205</v>
       </c>
@@ -3710,18 +3710,18 @@
       </c>
       <c r="G51">
         <f t="shared" si="1"/>
-        <v>52.827645565612663</v>
+        <v>1.7609215188537555</v>
       </c>
       <c r="H51">
         <f t="shared" si="2"/>
-        <v>1.8163265306122449</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="I51">
         <f t="shared" si="3"/>
-        <v>25.830707605535689</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.14820757688964259</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E52">
         <v>210</v>
       </c>
@@ -3731,18 +3731,18 @@
       </c>
       <c r="G52">
         <f t="shared" si="1"/>
-        <v>53.580248646913191</v>
+        <v>1.7860082882304398</v>
       </c>
       <c r="H52">
         <f t="shared" si="2"/>
-        <v>1.8367346938775511</v>
+        <v>1.5857142857142859</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
-        <v>26.314297566433996</v>
-      </c>
-    </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.13115263211087747</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E53">
         <v>215</v>
       </c>
@@ -3752,18 +3752,18 @@
       </c>
       <c r="G53">
         <f t="shared" si="1"/>
-        <v>54.343573602942726</v>
+        <v>1.8114524534314242</v>
       </c>
       <c r="H53">
         <f t="shared" si="2"/>
-        <v>1.8571428571428572</v>
+        <v>1.6</v>
       </c>
       <c r="I53">
         <f t="shared" si="3"/>
-        <v>26.792543882504646</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.11425064853799449</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E54">
         <v>220</v>
       </c>
@@ -3773,18 +3773,18 @@
       </c>
       <c r="G54">
         <f t="shared" si="1"/>
-        <v>55.117773181677677</v>
+        <v>1.8372591060559225</v>
       </c>
       <c r="H54">
         <f t="shared" si="2"/>
-        <v>1.8775510204081631</v>
+        <v>1.6142857142857143</v>
       </c>
       <c r="I54">
         <f t="shared" si="3"/>
-        <v>27.265563358254138</v>
-      </c>
-    </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+        <v>9.7498906806466334E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E55">
         <v>225</v>
       </c>
@@ -3794,18 +3794,18 @@
       </c>
       <c r="G55">
         <f t="shared" si="1"/>
-        <v>55.903002307201234</v>
+        <v>1.8634334102400412</v>
       </c>
       <c r="H55">
         <f t="shared" si="2"/>
-        <v>1.8979591836734695</v>
+        <v>1.6285714285714286</v>
       </c>
       <c r="I55">
         <f t="shared" si="3"/>
-        <v>27.733469009784699</v>
-      </c>
-    </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
+        <v>8.0894759431126895E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E56">
         <v>230</v>
       </c>
@@ -3815,18 +3815,18 @@
       </c>
       <c r="G56">
         <f t="shared" si="1"/>
-        <v>56.699418110705011</v>
+        <v>1.889980603690167</v>
       </c>
       <c r="H56">
         <f t="shared" si="2"/>
-        <v>1.9183673469387754</v>
+        <v>1.6428571428571428</v>
       </c>
       <c r="I56">
         <f t="shared" si="3"/>
-        <v>28.196370226872876</v>
-      </c>
-    </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
+        <v>6.4435628295021474E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E57">
         <v>235</v>
       </c>
@@ -3836,18 +3836,18 @@
       </c>
       <c r="G57">
         <f t="shared" si="1"/>
-        <v>57.507179961932394</v>
+        <v>1.9169059987310799</v>
       </c>
       <c r="H57">
         <f t="shared" si="2"/>
-        <v>1.9387755102040818</v>
+        <v>1.657142857142857</v>
       </c>
       <c r="I57">
         <f t="shared" si="3"/>
-        <v>28.654372926472195</v>
-      </c>
-    </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+        <v>4.811900224696708E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E58">
         <v>240</v>
       </c>
@@ -3857,18 +3857,18 @@
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
-        <v>58.32644950106981</v>
+        <v>1.9442149833689937</v>
       </c>
       <c r="H58">
         <f t="shared" si="2"/>
-        <v>1.9591836734693877</v>
+        <v>1.6714285714285713</v>
       </c>
       <c r="I58">
         <f t="shared" si="3"/>
-        <v>29.107579698178441</v>
-      </c>
-    </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
+        <v>3.194243480222736E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E59">
         <v>245</v>
       </c>
@@ -3878,18 +3878,18 @@
       </c>
       <c r="G59">
         <f t="shared" si="1"/>
-        <v>59.157390671092323</v>
+        <v>1.9719130223697441</v>
       </c>
       <c r="H59">
         <f t="shared" si="2"/>
-        <v>1.9795918367346939</v>
+        <v>1.6857142857142857</v>
       </c>
       <c r="I59">
         <f t="shared" si="3"/>
-        <v>29.556089942157588</v>
-      </c>
-    </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.25">
+        <v>1.5903541941033827E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E60">
         <v>250</v>
       </c>
@@ -3899,15 +3899,15 @@
       </c>
       <c r="G60">
         <f t="shared" si="1"/>
-        <v>60.000169750570052</v>
+        <v>2.0000056583523351</v>
       </c>
       <c r="H60">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="I60">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
